--- a/schedule/concrete_pump/schwing.xlsx
+++ b/schedule/concrete_pump/schwing.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\concrete_maintenance_app\schedule\concrete_pump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD2B8BE-101E-4C32-84A7-2BD9CC0A64EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052ABDB-B65C-4CF4-8A4B-290EB35D3D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daily(10 Operating Hrs." sheetId="1" r:id="rId1"/>
+    <sheet name="Daily(10 Operating hrs)" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly(50 Operating hrs)" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly(200 Operating hrs)" sheetId="3" r:id="rId3"/>
     <sheet name="Quarter-Annually(500 Op hrs)" sheetId="4" r:id="rId4"/>
     <sheet name="Semi-Annually(1000 Op hrs" sheetId="5" r:id="rId5"/>
-    <sheet name="Anually or 2000 Op hrs" sheetId="6" r:id="rId6"/>
+    <sheet name="Anually (2000 Op hrs)" sheetId="6" r:id="rId6"/>
     <sheet name="As required" sheetId="8" r:id="rId7"/>
     <sheet name="maintenace_log" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>Task</t>
   </si>
@@ -197,6 +197,150 @@
   </si>
   <si>
     <t>Placing boom: Wear check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR THE TRUCK PART: </t>
+  </si>
+  <si>
+    <t>Check engine oil level: Use dipstick; wait 5+ mins after shutdown</t>
+  </si>
+  <si>
+    <t>Check coolant level: Top up if below minimum mark</t>
+  </si>
+  <si>
+    <t>Check washer fluid level: Located under maintenance flap</t>
+  </si>
+  <si>
+    <t>Visual inspection for leaks: Engine, underbody, fuel lines</t>
+  </si>
+  <si>
+    <t>Check tyre condition and pressure: Look for cracks, wear, or underinflation</t>
+  </si>
+  <si>
+    <t>Check lights &amp; indicators: Ensure all are working</t>
+  </si>
+  <si>
+    <t>Review dashboard alerts/messages: Use on-board display</t>
+  </si>
+  <si>
+    <t>Optional: Drain air tanks: Especially if humidity is high</t>
+  </si>
+  <si>
+    <t>Check clutch fluid level: Must be between min/max (green cap)</t>
+  </si>
+  <si>
+    <t>Check battery terminals: Clean corrosion, tighten connections</t>
+  </si>
+  <si>
+    <t>Clean cab steps &amp; air intake vents: Safety and airflow</t>
+  </si>
+  <si>
+    <t>Inspect wiper blades: Replace if damaged or streaking</t>
+  </si>
+  <si>
+    <t>Lubricate wheel nuts (light oil): Especially rear wheels</t>
+  </si>
+  <si>
+    <t>Check AdBlue level: Prevents engine derating</t>
+  </si>
+  <si>
+    <t>Inspect fuel lines &amp; hoses: Look for leaks or swelling</t>
+  </si>
+  <si>
+    <t>Examine air intake filter housing: Blow out if dusty or dirty</t>
+  </si>
+  <si>
+    <t>Inspect chassis for corrosion: Especially around air/hydraulic lines</t>
+  </si>
+  <si>
+    <t>Check spare tyre carrier operation: Lubricate if stiff</t>
+  </si>
+  <si>
+    <t>Inspect undercarriage protection &amp; wax coat: Reapply rustproofing if needed</t>
+  </si>
+  <si>
+    <t>Check cab tilting mechanism: Grease linkage, inspect pump &amp; lever</t>
+  </si>
+  <si>
+    <t>Verify torque on wheel nuts: Use torque wrench, especially post-tyre service</t>
+  </si>
+  <si>
+    <t>Inspect mirror and lighting assemblies: Check for cracks, water ingress</t>
+  </si>
+  <si>
+    <t>Run on-board diagnostic scan: Capture alerts or stored fault codes</t>
+  </si>
+  <si>
+    <t>Drain and clean fuel water separator: If equipped</t>
+  </si>
+  <si>
+    <t>Check and top up transmission and axle oil: Per load usage</t>
+  </si>
+  <si>
+    <t>Inspect and test battery voltage &amp; health: Load test recommended</t>
+  </si>
+  <si>
+    <t>Clean and inspect cab air filter: Replace if airflow is restricted</t>
+  </si>
+  <si>
+    <t>Check propeller shaft and U-joints: Grease and inspect for play</t>
+  </si>
+  <si>
+    <t>Inspect brake hoses and fittings: Look for cracking or leaks</t>
+  </si>
+  <si>
+    <t>Replace engine oil and oil filter</t>
+  </si>
+  <si>
+    <t>Replace fuel filters: Main and pre-filter</t>
+  </si>
+  <si>
+    <t>Replace air filter: Especially after heavy-duty site work</t>
+  </si>
+  <si>
+    <t>Full brake system inspection: Pads, discs, tanks, lines</t>
+  </si>
+  <si>
+    <t>Replace coolant if due: Check PH and freeze point</t>
+  </si>
+  <si>
+    <t>Inspect transmission and differential oil: Replace if recommended by hours or use</t>
+  </si>
+  <si>
+    <t>Test and inspect cab tilting hydraulics: Check seals, operation, and safety lockout</t>
+  </si>
+  <si>
+    <t>Examine the truck’s alternator, lug nuts and belts.</t>
+  </si>
+  <si>
+    <t>Boom Gaskets and Seals: Conduct a visual inspection for any signs of damaged gaskets or leaks along the boom structure.</t>
+  </si>
+  <si>
+    <t>Hydraulic Hoses: Carefully examine all hydraulic hoses for indicators such as bubbling, dry-rotting, cracking or abrasion that could lead to leaks or inefficiencies.</t>
+  </si>
+  <si>
+    <t>Cutting Ring: Check the pretension on the cutting ring, guaranteeing it’s adjusted correctly for optimal performance.</t>
+  </si>
+  <si>
+    <t>Truck Brake pad: Scrutinize the truck’s brake pads and air lines and assess the tension on the belts for signs of wear or damage.</t>
+  </si>
+  <si>
+    <t>Air Lines: Perform a brake test by pressurizing the truck to 100 PSI, shutting it off and pressing the gauge until the switch pops out to verify their functionality at low pressures.</t>
+  </si>
+  <si>
+    <t>Belt Tension: Ensure all bolts securing the truck to its frame are securely tightened to maintain structural integrity.</t>
+  </si>
+  <si>
+    <t>Mounting and seals: Ensure switches are firmly mounted, no water ingress</t>
+  </si>
+  <si>
+    <t>Boom Structure: Conduct a thorough inspection of the entire boom.</t>
+  </si>
+  <si>
+    <t>Material(Delivery Cylinder): Examine the material cylinders for any issues.</t>
+  </si>
+  <si>
+    <t>Turret(Rotary): Verify that the turret possesses sufficient torque.</t>
   </si>
 </sst>
 </file>
@@ -238,9 +382,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,83 +685,133 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -624,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5715ACC7-7C82-41CC-B094-C8B2C741D572}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,6 +877,36 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -687,15 +914,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA792D-0DCE-48EB-93D7-42F2166D1095}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="153.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -775,7 +1002,72 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -785,15 +1077,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785B6BEF-C8FB-4AB0-814A-9A58D6946A1F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -809,6 +1101,51 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -818,15 +1155,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD510A0F-1C36-4DC2-B4A4-7B3F30EE46CE}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -862,6 +1199,41 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395A216E-0085-4127-B2B5-CD39724C9933}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,6 +1294,46 @@
         <v>53</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -931,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F046DD8-D7DB-4B25-BCD2-EECDD10885D9}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
